--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-Data_Structures-REGULATED-V2.0.2.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-Data_Structures-REGULATED-V2.0.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD-Steps\ESPD\dist\cl\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD\ESPD-EDM\docs\src\main\asciidoc\dist\cl\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" tabRatio="588" firstSheet="28" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" tabRatio="588"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -2787,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW146"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56908,7 +56908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-Data_Structures-REGULATED-V2.0.2.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-Data_Structures-REGULATED-V2.0.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD\ESPD-EDM\docs\src\main\asciidoc\dist\cl\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD-Steps\ESPD\dist\cl\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" tabRatio="588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" tabRatio="588" firstSheet="28" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -2787,7 +2787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56908,7 +56908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-Data_Structures-REGULATED-V2.0.2.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-Data_Structures-REGULATED-V2.0.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD-Steps\ESPD\dist\cl\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPD\ESPD-EDM\docs\src\main\asciidoc\dist\cl\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725" tabRatio="588" firstSheet="28" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13994" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14014" uniqueCount="466">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1483,12 +1483,18 @@
   <si>
     <t>swe</t>
   </si>
+  <si>
+    <t>f4978772-3126-4ded-bc30-f50da8c3a038</t>
+  </si>
+  <si>
+    <t>This UUID has been changed as per 20180430th. To distinguish this subgroup from those other containing the same questions but different Property Group Type Code (ON*, instead of ONTRUE).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1638,6 +1644,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2056,7 +2068,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2439,6 +2451,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2787,7 +2802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW146"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3671,14 +3686,14 @@
       <c r="V12" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="W12" s="30" t="s">
-        <v>34</v>
+      <c r="W12" s="148" t="s">
+        <v>464</v>
       </c>
       <c r="X12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y12" s="30" t="s">
-        <v>0</v>
+      <c r="Y12" s="148" t="s">
+        <v>465</v>
       </c>
       <c r="Z12" s="33"/>
     </row>
@@ -4980,14 +4995,14 @@
       <c r="V36" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="W36" s="30" t="s">
-        <v>34</v>
+      <c r="W36" s="148" t="s">
+        <v>464</v>
       </c>
       <c r="X36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y36" s="30" t="s">
-        <v>0</v>
+      <c r="Y36" s="148" t="s">
+        <v>465</v>
       </c>
       <c r="Z36" s="33"/>
     </row>
@@ -6299,14 +6314,14 @@
       <c r="V60" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="W60" s="30" t="s">
-        <v>34</v>
+      <c r="W60" s="148" t="s">
+        <v>464</v>
       </c>
       <c r="X60" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y60" s="30" t="s">
-        <v>0</v>
+      <c r="Y60" s="148" t="s">
+        <v>465</v>
       </c>
       <c r="Z60" s="33"/>
     </row>
@@ -7618,14 +7633,14 @@
       <c r="V84" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="W84" s="30" t="s">
-        <v>34</v>
+      <c r="W84" s="148" t="s">
+        <v>464</v>
       </c>
       <c r="X84" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y84" s="30" t="s">
-        <v>0</v>
+      <c r="Y84" s="148" t="s">
+        <v>465</v>
       </c>
       <c r="Z84" s="33"/>
     </row>
@@ -8937,14 +8952,14 @@
       <c r="V108" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="W108" s="30" t="s">
-        <v>34</v>
+      <c r="W108" s="148" t="s">
+        <v>464</v>
       </c>
       <c r="X108" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y108" s="30" t="s">
-        <v>0</v>
+      <c r="Y108" s="148" t="s">
+        <v>465</v>
       </c>
       <c r="Z108" s="33"/>
     </row>
@@ -10254,14 +10269,14 @@
       <c r="V132" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="W132" s="30" t="s">
-        <v>34</v>
+      <c r="W132" s="148" t="s">
+        <v>464</v>
       </c>
       <c r="X132" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y132" s="30" t="s">
-        <v>0</v>
+      <c r="Y132" s="148" t="s">
+        <v>465</v>
       </c>
       <c r="Z132" s="33"/>
     </row>
@@ -10993,7 +11008,7 @@
     <hyperlink ref="T143" r:id="rId6" display="http://public_site/repository/evidences/evidence?id=EVIDENCE-00001"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -49132,7 +49147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56908,7 +56925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -63925,7 +63942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -64621,6 +64638,9 @@
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D9" s="126" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
@@ -64657,7 +64677,7 @@
         <v>34</v>
       </c>
       <c r="X9" s="139" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>0</v>
@@ -64671,6 +64691,9 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="126" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -64721,6 +64744,9 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="126" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -64757,7 +64783,7 @@
         <v>36</v>
       </c>
       <c r="X11" s="139" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>0</v>
@@ -64771,6 +64797,9 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="126" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -64823,6 +64852,9 @@
       <c r="C13" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D13" s="126" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>0</v>
       </c>
@@ -64873,6 +64905,9 @@
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="126" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -65728,6 +65763,9 @@
       <c r="C30" s="126" t="s">
         <v>0</v>
       </c>
+      <c r="D30" s="126" t="s">
+        <v>0</v>
+      </c>
       <c r="E30" s="126" t="s">
         <v>23</v>
       </c>
@@ -65764,7 +65802,7 @@
         <v>34</v>
       </c>
       <c r="X30" s="139" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y30" s="126" t="s">
         <v>0</v>
@@ -65778,6 +65816,9 @@
         <v>0</v>
       </c>
       <c r="C31" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="126" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="126" t="s">
@@ -65828,6 +65869,9 @@
         <v>0</v>
       </c>
       <c r="C32" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="126" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="126" t="s">
@@ -65864,7 +65908,7 @@
         <v>36</v>
       </c>
       <c r="X32" s="139" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Y32" s="122" t="s">
         <v>0</v>
@@ -65878,6 +65922,9 @@
         <v>0</v>
       </c>
       <c r="C33" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="126" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="126" t="s">
@@ -65930,6 +65977,9 @@
       <c r="C34" s="126" t="s">
         <v>0</v>
       </c>
+      <c r="D34" s="126" t="s">
+        <v>0</v>
+      </c>
       <c r="E34" s="126" t="s">
         <v>0</v>
       </c>
@@ -65980,6 +66030,9 @@
         <v>0</v>
       </c>
       <c r="C35" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="126" t="s">
         <v>0</v>
       </c>
       <c r="E35" s="126" t="s">
@@ -68554,7 +68607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -71094,7 +71149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-Data_Structures-REGULATED-V2.0.2.xlsx
+++ b/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-Data_Structures-REGULATED-V2.0.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="588"/>
   </bookViews>
   <sheets>
     <sheet name="EG-Convictions" sheetId="1" r:id="rId1"/>
@@ -2668,7 +2668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y146"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21838,7 +21838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
